--- a/24数学建模国赛/C题/附件1.xlsx
+++ b/24数学建模国赛/C题/附件1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="15070" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="乡村的现有耕地" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <r>
       <rPr>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) </t>
     </r>
     <r>
@@ -515,6 +521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">(1) </t>
     </r>
     <r>
@@ -907,6 +919,9 @@
       <t xml:space="preserve">第一季、第二季
 </t>
     </r>
+  </si>
+  <si>
+    <t>，</t>
   </si>
   <si>
     <r>
@@ -1560,7 +1575,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1604,6 +1619,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1770,12 +1791,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1787,20 +1802,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,12 +1981,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,161 +2166,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2375,10 +2372,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2742,7 +2742,7 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2756,16 +2756,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="C2" s="6">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="C3" s="6">
         <v>55</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="6" t="s">
@@ -2805,7 +2805,7 @@
       <c r="C4" s="6">
         <v>35</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="15.5" spans="1:4">
       <c r="A5" s="6" t="s">
@@ -2817,7 +2817,7 @@
       <c r="C5" s="6">
         <v>72</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="15.5" spans="1:4">
       <c r="A6" s="6" t="s">
@@ -2829,7 +2829,7 @@
       <c r="C6" s="9">
         <v>68</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" ht="15.5" spans="1:4">
       <c r="A7" s="6" t="s">
@@ -2841,7 +2841,7 @@
       <c r="C7" s="6">
         <v>55</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" ht="15.5" spans="1:4">
       <c r="A8" s="6" t="s">
@@ -2853,7 +2853,7 @@
       <c r="C8" s="6">
         <v>60</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" ht="15.5" spans="1:4">
       <c r="A9" s="6" t="s">
@@ -2865,7 +2865,7 @@
       <c r="C9" s="6">
         <v>46</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" ht="15.5" spans="1:4">
       <c r="A10" s="6" t="s">
@@ -2877,7 +2877,7 @@
       <c r="C10" s="6">
         <v>40</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="9" t="s">
@@ -2889,7 +2889,7 @@
       <c r="C11" s="6">
         <v>28</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" ht="15.5" spans="1:4">
       <c r="A12" s="6" t="s">
@@ -2901,7 +2901,7 @@
       <c r="C12" s="6">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" ht="15.5" spans="1:4">
       <c r="A13" s="6" t="s">
@@ -2913,7 +2913,7 @@
       <c r="C13" s="6">
         <v>86</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" ht="15.5" spans="1:4">
       <c r="A14" s="6" t="s">
@@ -2925,7 +2925,7 @@
       <c r="C14" s="6">
         <v>55</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" ht="15.5" spans="1:4">
       <c r="A15" s="6" t="s">
@@ -2937,7 +2937,7 @@
       <c r="C15" s="6">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -2949,7 +2949,7 @@
       <c r="C16" s="6">
         <v>50</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="6" t="s">
@@ -2961,7 +2961,7 @@
       <c r="C17" s="6">
         <v>25</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="6" t="s">
@@ -2973,7 +2973,7 @@
       <c r="C18" s="6">
         <v>60</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" ht="15.5" spans="1:4">
       <c r="A19" s="6" t="s">
@@ -2985,7 +2985,7 @@
       <c r="C19" s="6">
         <v>45</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="6" t="s">
@@ -2997,7 +2997,7 @@
       <c r="C20" s="6">
         <v>35</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" ht="15.5" spans="1:4">
       <c r="A21" s="6" t="s">
@@ -3009,7 +3009,7 @@
       <c r="C21" s="6">
         <v>20</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" ht="15.5" spans="1:4">
       <c r="A22" s="6" t="s">
@@ -3021,7 +3021,7 @@
       <c r="C22" s="6">
         <v>15</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" ht="15.5" spans="1:4">
       <c r="A23" s="6" t="s">
@@ -3033,7 +3033,7 @@
       <c r="C23" s="6">
         <v>13</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" ht="15.5" spans="1:4">
       <c r="A24" s="6" t="s">
@@ -3045,7 +3045,7 @@
       <c r="C24" s="6">
         <v>15</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" ht="15.5" spans="1:4">
       <c r="A25" s="6" t="s">
@@ -3057,7 +3057,7 @@
       <c r="C25" s="6">
         <v>18</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" ht="15.5" spans="1:4">
       <c r="A26" s="6" t="s">
@@ -3069,7 +3069,7 @@
       <c r="C26" s="6">
         <v>27</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" ht="15.5" spans="1:4">
       <c r="A27" s="6" t="s">
@@ -3081,7 +3081,7 @@
       <c r="C27" s="6">
         <v>20</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:4">
       <c r="A28" s="6" t="s">
@@ -3093,7 +3093,7 @@
       <c r="C28" s="6">
         <v>15</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:4">
       <c r="A29" s="6" t="s">
@@ -3105,7 +3105,7 @@
       <c r="C29" s="6">
         <v>10</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:4">
       <c r="A30" s="6" t="s">
@@ -3117,7 +3117,7 @@
       <c r="C30" s="6">
         <v>14</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:4">
       <c r="A31" s="6" t="s">
@@ -3129,7 +3129,7 @@
       <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:4">
       <c r="A32" s="6" t="s">
@@ -3141,7 +3141,7 @@
       <c r="C32" s="6">
         <v>10</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:4">
       <c r="A33" s="6" t="s">
@@ -3153,7 +3153,7 @@
       <c r="C33" s="6">
         <v>12</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" ht="15.5" spans="1:4">
       <c r="A34" s="6" t="s">
@@ -3165,7 +3165,7 @@
       <c r="C34" s="6">
         <v>22</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" ht="15.5" spans="1:4">
       <c r="A35" s="6" t="s">
@@ -3177,7 +3177,7 @@
       <c r="C35" s="6">
         <v>20</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:4">
       <c r="A36" s="6" t="s">
@@ -3189,7 +3189,7 @@
       <c r="C36" s="6">
         <v>0.6</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:4">
       <c r="A37" s="6" t="s">
@@ -3201,7 +3201,7 @@
       <c r="C37" s="6">
         <v>0.6</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:4">
       <c r="A38" s="6" t="s">
@@ -3213,7 +3213,7 @@
       <c r="C38" s="6">
         <v>0.6</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:4">
       <c r="A39" s="6" t="s">
@@ -3225,7 +3225,7 @@
       <c r="C39" s="6">
         <v>0.6</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:4">
       <c r="A40" s="6" t="s">
@@ -3237,7 +3237,7 @@
       <c r="C40" s="6">
         <v>0.6</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
@@ -3249,7 +3249,7 @@
       <c r="C41" s="6">
         <v>0.6</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
@@ -3261,7 +3261,7 @@
       <c r="C42" s="6">
         <v>0.6</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
@@ -3273,7 +3273,7 @@
       <c r="C43" s="6">
         <v>0.6</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:4">
       <c r="A44" s="6" t="s">
@@ -3285,7 +3285,7 @@
       <c r="C44" s="6">
         <v>0.6</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
@@ -3297,7 +3297,7 @@
       <c r="C45" s="6">
         <v>0.6</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
@@ -3309,7 +3309,7 @@
       <c r="C46" s="6">
         <v>0.6</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="6" t="s">
@@ -3321,7 +3321,7 @@
       <c r="C47" s="6">
         <v>0.6</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:4">
       <c r="A48" s="6" t="s">
@@ -3333,7 +3333,7 @@
       <c r="C48" s="6">
         <v>0.6</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="6" t="s">
@@ -3345,7 +3345,7 @@
       <c r="C49" s="6">
         <v>0.6</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
@@ -3357,7 +3357,7 @@
       <c r="C50" s="6">
         <v>0.6</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
@@ -3369,7 +3369,7 @@
       <c r="C51" s="6">
         <v>0.6</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
@@ -3381,7 +3381,7 @@
       <c r="C52" s="6">
         <v>0.6</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
@@ -3393,7 +3393,7 @@
       <c r="C53" s="6">
         <v>0.6</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
@@ -3405,7 +3405,7 @@
       <c r="C54" s="6">
         <v>0.6</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="6" t="s">
@@ -3417,7 +3417,7 @@
       <c r="C55" s="6">
         <v>0.6</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3434,13 +3434,13 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.09090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.3636363636364" style="2" customWidth="1"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" ht="15.5" spans="1:5">
+    <row r="18" ht="15.5" spans="1:11">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3695,13 +3695,16 @@
         <v>92</v>
       </c>
       <c r="E18" s="11"/>
+      <c r="K18" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" ht="15.5" spans="1:5">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>91</v>
@@ -3714,7 +3717,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>91</v>
@@ -3727,10 +3730,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="11"/>
@@ -3740,10 +3743,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="11"/>
@@ -3753,10 +3756,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="11"/>
@@ -3766,10 +3769,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="11"/>
@@ -3779,10 +3782,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="11"/>
@@ -3792,10 +3795,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
@@ -3805,10 +3808,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
@@ -3818,10 +3821,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="11"/>
@@ -3831,10 +3834,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="11"/>
@@ -3844,10 +3847,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="11"/>
@@ -3857,10 +3860,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11"/>
@@ -3870,10 +3873,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="11"/>
@@ -3883,10 +3886,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
@@ -3896,10 +3899,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="11"/>
@@ -3909,10 +3912,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="11"/>
@@ -3922,13 +3925,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36" s="11"/>
     </row>
@@ -3937,10 +3940,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11"/>
@@ -3950,10 +3953,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="11"/>
@@ -3963,13 +3966,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -3978,10 +3981,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="11"/>
@@ -3991,10 +3994,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="11"/>
@@ -4004,10 +4007,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="11"/>
@@ -4021,10 +4024,10 @@
     </row>
     <row r="44" ht="15.5" spans="1:5">
       <c r="A44" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -4033,7 +4036,7 @@
     <row r="45" ht="15.5" spans="1:5">
       <c r="A45" s="12"/>
       <c r="B45" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -4042,7 +4045,7 @@
     <row r="46" ht="15.5" spans="1:5">
       <c r="A46" s="12"/>
       <c r="B46" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
